--- a/posts/E4-NHLBallots/IAN HOCKEY NOMINATIONS.xlsx
+++ b/posts/E4-NHLBallots/IAN HOCKEY NOMINATIONS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a0c758a39d05655/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/BCB520/posts/E4-NHLBallots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B05A185F-E259-426F-B43F-FFBC8599EA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CE4FB2-15C4-534A-812B-17C65F980566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{83FAAF97-F68E-4DF6-8954-0D2992957069}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21800" windowHeight="11620" xr2:uid="{83FAAF97-F68E-4DF6-8954-0D2992957069}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
   <si>
     <t>Voter</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Marco Rossi</t>
   </si>
   <si>
-    <t>Logan Thomspon</t>
-  </si>
-  <si>
     <t>Frank J Selke</t>
   </si>
   <si>
@@ -126,6 +123,12 @@
   </si>
   <si>
     <t>Lady Byng</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Logan Thompson</t>
   </si>
 </sst>
 </file>
@@ -499,348 +502,441 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75888E06-65D1-45F9-9FE3-BE121248B795}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
       <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
       </c>
       <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
